--- a/14feats_classifier.xlsx
+++ b/14feats_classifier.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/do19150/Gits/ML_QPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DE4AF3DB-F323-314A-9FBB-0AB9F93FB785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42247AD-A294-5047-9E2D-30C173DD8692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="-140" yWindow="840" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="featurecombo0_dt50_realtest" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>OBSID</t>
   </si>
@@ -76,11 +76,26 @@
   <si>
     <t>Total Prop</t>
   </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>QPE?</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -217,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,7 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,11 +585,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,3231 +945,4395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
       <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>9</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>7</v>
       </c>
-      <c r="V2">
-        <f>T2/(T2+U2)</f>
+      <c r="Z2">
+        <f>X2/(X2+Y2)</f>
         <v>0.5625</v>
       </c>
-      <c r="W2">
-        <f>(T2+U2)/COUNT(A3:A71)</f>
+      <c r="AA2">
+        <f>(X2+Y2)/COUNT(A3:A71)</f>
         <v>0.2318840579710145</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>93641501</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" s="2">
+        <v>0.25816917</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>7.1278959512710495E-4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.99928718805313099</v>
       </c>
-      <c r="S3" t="s">
+      <c r="G3">
+        <f>IF(F3&gt;0.999965,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>93641601</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>0.16925882</v>
+      </c>
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.76101243495941095</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.23898762464523299</v>
       </c>
-      <c r="S4" t="s">
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="0">IF(F4&gt;0.999965,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>93641701</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" s="2">
+        <v>0.13602959000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>5.3561641834676201E-4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.999464452266693</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>111790101</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" s="2">
+        <v>5.0089072999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0.35764434933662398</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.64235568046569802</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>111790101</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.356012552976608</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.643987476825714</v>
       </c>
-      <c r="M6">
+      <c r="N6">
+        <f>IF(M6&gt;0.9999,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>111790101</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>1.1323946528136701E-2</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>0.98867607116699197</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <f t="shared" ref="U4:U67" si="1">IF(T6=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>112550601</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" s="2">
+        <v>1.7196478000000001E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1.5366390289273099E-4</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.99984633922576904</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>112550601</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>1.4662995818071E-4</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.99985337257385198</v>
       </c>
-      <c r="M7">
+      <c r="N7">
+        <f t="shared" ref="N7:N70" si="2">IF(M7&gt;0.9999,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>112550601</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
         <v>7.5502072042349297E-13</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>112551701</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" s="2">
+        <v>1.118376</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>0.17077392339706399</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.82922601699829102</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>112551701</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.32421380281448298</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.67578619718551602</v>
       </c>
-      <c r="M8">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>112551701</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>4.2512090876698399E-3</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>0.99574881792068404</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>124710801</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2">
+        <v>0.18587622000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>7.3242197686340606E-5</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="4">
         <v>0.99992680549621504</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>124710801</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>7.3575996793806499E-4</v>
       </c>
-      <c r="K9">
+      <c r="M9" s="4">
         <v>0.99926418066024703</v>
       </c>
-      <c r="M9">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>124710801</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>1.43874914108762E-36</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>145800101</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10" s="2">
+        <v>6.5891720000000001E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>6.6394376335665497E-4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.99933606386184604</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>145800101</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>2.1202808711677699E-3</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.99787974357604903</v>
       </c>
-      <c r="M10">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>145800101</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
         <v>1.06233812857681E-8</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>152170501</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11" s="2">
+        <v>0.24547379</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2.9068036004900901E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.97093188762664795</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>152170501</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>4.1059963405132197E-2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.958940029144287</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>152170501</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
         <v>1.4773598344675001E-8</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>200670101</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2">
+        <v>0.11460281999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>1.57761564878455E-6</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="4">
         <v>0.99999845027923495</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>200670101</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>4.5888861641287804E-3</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.99541109800338701</v>
       </c>
-      <c r="M12">
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>200670101</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
         <v>4.5236149448180497E-23</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>200670201</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="2">
+        <v>0.10173748000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>5.3094117902219296E-7</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="4">
         <v>0.99999952316284102</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>200670201</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>2.98251677304506E-3</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.997017502784729</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>200670301</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14" s="2">
+        <v>8.0194970000000004E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>9.9649662151932699E-3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.99003499746322599</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>200670301</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>2.68157105892896E-3</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0.99731844663619995</v>
       </c>
-      <c r="M14">
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>200670301</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
         <v>4.4371706592468597E-15</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>200670401</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15" s="2">
+        <v>7.7329430000000005E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>2.0891698077321001E-3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.99791079759597701</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>200670401</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>2.1869277115911202E-3</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.99781310558319003</v>
       </c>
-      <c r="M15">
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>200670401</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
         <v>7.0660153284052202E-9</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>200920101</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2">
+        <v>5.0145790000000003E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>3.5896882764063701E-5</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.99996411800384499</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>200920101</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>1.26384280156344E-3</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.99873620271682695</v>
       </c>
-      <c r="M16">
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>200920101</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
         <v>1.54739299173568E-14</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>304190101</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2">
+        <v>4.6547335E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>2.9329605411021398E-10</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>304190101</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>2.3884027541498599E-5</v>
       </c>
-      <c r="K17">
+      <c r="M17" s="4">
         <v>0.99997615814208896</v>
       </c>
-      <c r="M17">
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>304190101</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
         <v>2.5317604896350602E-19</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>306630101</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18" s="2">
+        <v>0.100170515</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1.3608502922579601E-3</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.99863916635513295</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>306630101</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>2.3975972086191101E-2</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.97602397203445401</v>
       </c>
-      <c r="M18">
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>306630101</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
         <v>1.8909777281805798E-5</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>0.99998104572296098</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>306630201</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19" s="2">
+        <v>7.5241340000000004E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1.64315453730523E-3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.99835687875747603</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>306630201</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>8.1354286521673203E-3</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.99186456203460605</v>
       </c>
-      <c r="M19">
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>306630201</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>1.3151027960702701E-3</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>0.99868494272232</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>311190101</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>1.6615850999999999</v>
+      </c>
+      <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0.69369411468505804</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.30630585551261902</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>311190101</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0.38766384124755798</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.61233615875244096</v>
       </c>
-      <c r="M20">
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>311190101</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>8.6919590830802904E-2</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>0.91308045387268</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>401360101</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21" s="2">
+        <v>7.8020240000000005E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1.3598788529634399E-2</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.98640114068984897</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>401360101</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>8.2064755260944297E-3</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.991793453693389</v>
       </c>
-      <c r="M21">
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>401360101</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
         <v>2.91573383037757E-6</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>0.99999713897705</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>401360201</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22" s="2">
+        <v>9.01058E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>8.2514351233839902E-3</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.99174857139587402</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>401360201</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>1.3646850362420001E-2</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.986353158950805</v>
       </c>
-      <c r="M22">
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>401360201</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
         <v>9.6497237284109907E-12</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>401360301</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23" s="2">
+        <v>8.880325E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>9.3735352857038303E-4</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.99906271696090698</v>
       </c>
       <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>401360301</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>1.9249215722084E-2</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.98075079917907704</v>
       </c>
-      <c r="M23">
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>401360301</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
         <v>4.8239693489771001E-11</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>411980101</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24" s="2">
+        <v>0.12437804</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>3.9303928613662699E-2</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.960696101188659</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>411980101</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>2.1475916728377301E-2</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.97852408885955799</v>
       </c>
-      <c r="M24">
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>411980101</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
         <v>2.8987333045108398E-15</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>411980401</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2">
+        <v>0.33716318000000001</v>
+      </c>
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>4.1731014847755397E-2</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="4">
         <v>0.95826900005340498</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>411980401</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>1.35878045111894E-2</v>
       </c>
-      <c r="K25">
+      <c r="M25" s="4">
         <v>0.98641216754913297</v>
       </c>
-      <c r="M25">
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>411980401</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
         <v>2.2544094565444699E-17</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>500730101</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26" s="2">
+        <v>6.0887360000000001E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>3.8782104384153999E-3</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.99612182378768899</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>500730101</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>1.4344704104587401E-3</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.99856561422348</v>
       </c>
-      <c r="M26">
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>500730101</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
         <v>8.4737480975181205E-14</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>500730201</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27" s="2">
+        <v>7.9291983999999996E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>1.6426267102360701E-2</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.98357367515563898</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>500730201</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>1.33383879438042E-2</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.98666161298751798</v>
       </c>
-      <c r="M27">
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>500730201</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
         <v>3.13887604797002E-9</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>510011501</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2">
+        <v>0.35676059999999998</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>1.8118501490804701E-12</v>
       </c>
-      <c r="E28">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>510011501</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>1.88112680916674E-4</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.99981194734573298</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>551450101</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29" s="2">
+        <v>9.3760910000000003E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>1.60778481513261E-2</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.98392212390899603</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>551450101</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>8.3794668316841108E-3</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.99162054061889604</v>
       </c>
-      <c r="M29">
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>551450101</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
         <v>2.17383348734973E-13</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>551870401</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2">
+        <v>7.7364615999999997E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>5.3900410421192599E-5</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.99994611740112305</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>551870401</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>1.0175502393394701E-4</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0.99989819526672297</v>
       </c>
-      <c r="M30">
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>551870401</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
         <v>2.3043726649074601E-11</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>551870601</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31" s="2">
+        <v>7.4439989999999998E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>5.61732740607112E-4</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.99943822622299106</v>
       </c>
       <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>551870601</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>1.30783971399068E-2</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>0.98692166805267301</v>
       </c>
-      <c r="M31">
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>551870601</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
         <v>4.51646331445232E-10</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>556090101</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32" s="2">
+        <v>3.5416393999999997E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>1.27351691480726E-3</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.99872642755508401</v>
       </c>
       <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>556090101</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>6.42867479473352E-3</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>0.99357128143310502</v>
       </c>
-      <c r="M32">
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>556090101</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
         <v>2.2475021843604199E-9</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>603260201</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2">
+        <v>3.9478894E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>2.9313648042261701E-7</v>
       </c>
-      <c r="E33">
+      <c r="F33" s="4">
         <v>0.99999976158142001</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>603260201</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>2.2792092931922501E-4</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.99977213144302302</v>
       </c>
-      <c r="M33">
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>603260201</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
         <v>3.1372444416887398E-15</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>651790201</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34" s="2">
+        <v>2.8981515999999999E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>5.7328544789925196E-4</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.99942672252654996</v>
       </c>
       <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>651790201</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>7.3448708280920896E-4</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>0.99926549196243197</v>
       </c>
-      <c r="M34">
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>651790201</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
         <v>8.61672625612763E-12</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>657820101</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35" s="2">
+        <v>1.1064305999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>0.29205581545829701</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.70794421434402399</v>
       </c>
       <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>657820101</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>0.385047197341918</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>0.61495280265808105</v>
       </c>
-      <c r="M35">
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>657820101</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
         <v>1.8535254442397699E-9</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>691570101</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36" s="2">
+        <v>6.3745720000000006E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>8.3807623013853992E-3</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.99161922931671098</v>
       </c>
       <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>691570101</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>1.1694200802594399E-3</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>0.99883061647415095</v>
       </c>
-      <c r="M36">
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
         <v>691570101</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
         <v>8.81451578393921E-10</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>725200101</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2">
+        <v>2.4928111999999998</v>
+      </c>
+      <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>0.55955129861831598</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.44044867157936002</v>
       </c>
       <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>725200101</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>0.71881949901580799</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>0.28118050098419101</v>
       </c>
-      <c r="M37">
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>725200101</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
         <v>0.17310331761837</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>0.82689666748046797</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>725200301</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="B38" s="2">
+        <v>2.0274920000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>0.35294881463050798</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.64705121517181396</v>
       </c>
       <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>725200301</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>0.47125291824340798</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>0.52874714136123602</v>
       </c>
-      <c r="M38">
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>725200301</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
         <v>0.107478842139244</v>
       </c>
-      <c r="Q38">
+      <c r="T38">
         <v>0.89252114295959395</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>740960101</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="B39" s="2">
+        <v>0.6301004</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>0.101179048418998</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.89882099628448398</v>
       </c>
       <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>740960101</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>6.3695438206195804E-2</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>0.93630456924438399</v>
       </c>
-      <c r="M39">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>740960101</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" s="1">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
         <v>7.8876677434891395E-5</v>
       </c>
-      <c r="Q39">
+      <c r="T39">
         <v>0.99992108345031705</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>761630101</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="2">
+        <v>2.5892332000000001E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
         <v>7.2310767791350296E-6</v>
       </c>
-      <c r="E40">
+      <c r="F40" s="4">
         <v>0.99999272823333696</v>
       </c>
       <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>761630101</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
         <v>1.9215900683775501E-3</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>0.99807846546173096</v>
       </c>
-      <c r="M40">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>761630101</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
         <v>1.5589165765363101E-18</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>761630201</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="2">
+        <v>3.3066842999999999E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>5.2465973567450399E-5</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.99994754791259699</v>
       </c>
       <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>761630201</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
         <v>1.14041009510401E-4</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>0.99988591670989901</v>
       </c>
-      <c r="M41">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>761630201</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
         <v>7.7296719372399394E-12</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>761630301</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="B42" s="2">
+        <v>3.6773924E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>2.2462829656433301E-4</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.999775350093841</v>
       </c>
       <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>761630301</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
         <v>7.2166149038821405E-4</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>0.99927836656570401</v>
       </c>
-      <c r="M42">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>761630301</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
         <v>3.084713640078E-8</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>784510301</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43" s="2">
+        <v>4.3501914000000003E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>4.1975491330958897E-4</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.99958020448684604</v>
       </c>
       <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>784510301</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>1.0992016177624399E-3</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>0.99890077114105202</v>
       </c>
-      <c r="M43">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>784510301</v>
       </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
         <v>6.7801757097640802E-8</v>
       </c>
-      <c r="Q43">
+      <c r="T43">
         <v>0.99999988079071001</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>790650101</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="2">
+        <v>4.3450084000000002</v>
+      </c>
+      <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>0.76443189382553101</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.235568061470985</v>
       </c>
       <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>790650101</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>0.55923587083816495</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>0.440764129161834</v>
       </c>
-      <c r="M44">
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
         <v>790650101</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
         <v>0.34747377038001998</v>
       </c>
-      <c r="Q44">
+      <c r="T44">
         <v>0.65252619981765703</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>794581201</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="B45" s="2">
+        <v>6.4975900000000003E-2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
       </c>
       <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>2.2674591746181202E-3</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.99773252010345403</v>
       </c>
       <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>794581201</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>3.1887278892099801E-3</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>0.99681121110916104</v>
       </c>
-      <c r="M45">
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>794581201</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45" s="1">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
         <v>4.1667285941016097E-12</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>803670501</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46" s="2">
+        <v>6.5850510000000001E-2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>6.8458192981779499E-4</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.99931538105010898</v>
       </c>
       <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>803670501</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>2.76568927802145E-3</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>0.99723428487777699</v>
       </c>
-      <c r="M46">
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>803670501</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46" s="1">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
         <v>1.3530955869645E-11</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>803670601</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47" s="2">
+        <v>7.232334E-2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>2.7074133977293899E-3</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.99729257822036699</v>
       </c>
       <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>803670601</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>3.3317899797111702E-3</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>0.9966681599617</v>
       </c>
-      <c r="M47">
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>803670601</v>
       </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" s="1">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
         <v>1.64414922648736E-11</v>
       </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>803671001</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="B48" s="2">
+        <v>7.9561569999999998E-2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
       </c>
       <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>2.2827847860753502E-3</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.99771726131439198</v>
       </c>
       <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>803671001</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
         <v>1.53110362589359E-3</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>0.99846881628036499</v>
       </c>
-      <c r="M48">
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>803671001</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48" s="1">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
         <v>5.5743654137074796E-10</v>
       </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>803671101</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="B49" s="2">
+        <v>0.10413646999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
       </c>
       <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>1.0091998847201399E-3</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.99899083375930697</v>
       </c>
       <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>803671101</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
         <v>1.4684276655316301E-2</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>0.98531579971313399</v>
       </c>
-      <c r="M49">
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>803671101</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" s="1">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
         <v>3.9890423977340097E-6</v>
       </c>
-      <c r="Q49">
+      <c r="T49">
         <v>0.99999606609344405</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>805080401</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50" s="2">
+        <v>9.1409299999999999E-2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
       </c>
       <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>3.0796886421739999E-3</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.99692034721374501</v>
       </c>
       <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>805080401</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
         <v>3.4055627882480601E-2</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>0.96594440937042203</v>
       </c>
-      <c r="M50">
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
         <v>805080401</v>
       </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50" s="1">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
         <v>9.2055626055298405E-7</v>
       </c>
-      <c r="Q50">
+      <c r="T50">
         <v>0.99999904632568304</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>805080501</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51" s="2">
+        <v>0.10781035999999999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>8.0637196078896505E-3</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.99193632602691595</v>
       </c>
       <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>805080501</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>1.55041506513953E-2</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>0.98449587821960405</v>
       </c>
-      <c r="M51">
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>805080501</v>
       </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" s="1">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
         <v>2.0677392090218102E-11</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>823680101</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="B52" s="2">
+        <v>0.51268709999999995</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
         <v>3.3795375202316703E-5</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.99996614456176702</v>
       </c>
       <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>823680101</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
         <v>5.5555112339789E-5</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>0.999944448471069</v>
       </c>
-      <c r="M52">
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
         <v>823680101</v>
       </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52" s="1">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
         <v>3.7819514446779302E-19</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>831790701</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="B53" s="2">
+        <v>0.46259144000000002</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
         <v>2.8482580091804202E-5</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0.99997150897979703</v>
       </c>
       <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>831790701</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
         <v>2.3981076083146E-4</v>
       </c>
-      <c r="K53">
+      <c r="M53" s="4">
         <v>0.99976021051406805</v>
       </c>
-      <c r="M53">
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>831790701</v>
       </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53" s="1">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1">
         <v>2.0179754575428201E-23</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>842340201</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="B54" s="2">
+        <v>0.16309330999999999</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>8.2348689436912495E-2</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.91765135526657104</v>
       </c>
       <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>842340201</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
         <v>2.8352387249469702E-2</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>0.97164762020110995</v>
       </c>
-      <c r="M54">
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
         <v>842340201</v>
       </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54" s="1">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
         <v>5.3338042316219898E-11</v>
       </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>851180401</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="B55" s="2">
+        <v>0.35049307000000002</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
         <v>5.0684880079643301E-6</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.99999487400054898</v>
       </c>
       <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>851180401</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
         <v>1.7142097931355201E-5</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>0.99998283386230402</v>
       </c>
-      <c r="M55">
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>851180401</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55" s="1">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
         <v>2.2787156015071699E-23</v>
       </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>851180501</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="B56" s="2">
+        <v>0.22276965000000001</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
         <v>7.6879871357959896E-7</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.99999928474426203</v>
       </c>
       <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>851180501</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1">
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
         <v>1.9135082766297199E-5</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>0.99998080730438199</v>
       </c>
-      <c r="M56">
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P56">
         <v>851180501</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56" s="1">
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
         <v>6.4638948262042703E-26</v>
       </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>861910201</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="B57" s="2">
+        <v>0.38730051999999998</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
         <v>7.3289572810608597E-7</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.99999928474426203</v>
       </c>
       <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>861910201</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
         <v>1.9298033748782401E-6</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>0.99999809265136697</v>
       </c>
-      <c r="M57">
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P57">
         <v>861910201</v>
       </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1">
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
         <v>8.9171313976136795E-35</v>
       </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>861910301</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="2">
+        <v>0.19927702999999999</v>
+      </c>
+      <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>5.42955100536346E-3</v>
       </c>
-      <c r="E58">
+      <c r="F58" s="4">
         <v>0.99457043409347501</v>
       </c>
       <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>861910301</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>4.5237117446959001E-3</v>
       </c>
-      <c r="K58">
+      <c r="M58" s="4">
         <v>0.99547630548477095</v>
       </c>
-      <c r="M58">
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>861910301</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
         <v>8.3091606484231296E-7</v>
       </c>
-      <c r="Q58">
+      <c r="T58">
         <v>0.99999916553497303</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="U58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>862760201</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="B59" s="2">
+        <v>4.3432100000000001E-2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
       </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>3.4283231943845701E-3</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.99657166004180897</v>
       </c>
       <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>862760201</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
       <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>3.6009880714118398E-3</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>0.996399044990539</v>
       </c>
-      <c r="M59">
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
         <v>862760201</v>
       </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59" s="1">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1">
         <v>1.5853351867453201E-16</v>
       </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>864330101</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="2">
+        <v>0.46991912000000002</v>
+      </c>
+      <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>3.00017651170492E-3</v>
       </c>
-      <c r="E60">
+      <c r="F60" s="4">
         <v>0.99699980020523005</v>
       </c>
       <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>864330101</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
         <v>6.93836854770779E-3</v>
       </c>
-      <c r="K60">
+      <c r="M60" s="4">
         <v>0.99306160211563099</v>
       </c>
-      <c r="M60">
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
         <v>864330101</v>
       </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60" s="1">
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1">
         <v>6.79423772583656E-26</v>
       </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>864330201</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="B61" s="2">
+        <v>0.65037495000000001</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
       </c>
       <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>0.48382675647735501</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.51617318391799905</v>
       </c>
       <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>864330201</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
         <v>2.4551667273044499E-2</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>0.97544836997985795</v>
       </c>
-      <c r="M61">
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
         <v>864330201</v>
       </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
         <v>1.79627633769996E-4</v>
       </c>
-      <c r="Q61">
+      <c r="T61">
         <v>0.99982041120529097</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="U61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>864330301</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="B62" s="2">
+        <v>0.56797900000000001</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
       </c>
       <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>0.433736711740493</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.56626331806182795</v>
       </c>
       <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>864330301</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>5.2848726511001497E-2</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>0.94715124368667603</v>
       </c>
-      <c r="M62">
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
         <v>864330301</v>
       </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
         <v>2.80145235592499E-4</v>
       </c>
-      <c r="Q62">
+      <c r="T62">
         <v>0.99971979856491</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="U62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>864330401</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="B63" s="2">
+        <v>0.66432449999999998</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
       </c>
       <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>0.156342267990112</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.84365773200988703</v>
       </c>
       <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>864330401</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>0.12522983551025299</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>0.87477022409438998</v>
       </c>
-      <c r="M63">
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>864330401</v>
       </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
         <v>2.1084528416395101E-2</v>
       </c>
-      <c r="Q63">
+      <c r="T63">
         <v>0.97891551256179798</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>864560101</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="2">
+        <v>0.20361282999999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
         <v>4.24197742177057E-6</v>
       </c>
-      <c r="E64">
+      <c r="F64" s="2">
         <v>0.99999570846557595</v>
       </c>
       <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>864560101</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
         <v>2.7321308152750101E-5</v>
       </c>
-      <c r="K64">
+      <c r="M64" s="2">
         <v>0.99997270107269198</v>
       </c>
-      <c r="M64">
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>864560101</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64" s="1">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1">
         <v>8.1742687593514607E-28</v>
       </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>870830101</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65" s="2">
+        <v>5.9205090000000002E-2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
       </c>
       <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>1.3904194347560399E-3</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.99860954284667902</v>
       </c>
       <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>870830101</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
       <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
         <v>3.53509304113686E-3</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>0.99646484851837103</v>
       </c>
-      <c r="M65">
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
         <v>870830101</v>
       </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65" s="1">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1">
         <v>5.0370226745144396E-6</v>
       </c>
-      <c r="Q65">
+      <c r="T65">
         <v>0.99999499320983798</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>870830201</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66" s="2">
+        <v>6.0791627000000001E-2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
       </c>
       <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>3.79582750611007E-3</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>0.99620419740676802</v>
       </c>
       <c r="G66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>870830201</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>8.0754322698339798E-4</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>0.99919241666793801</v>
       </c>
-      <c r="M66">
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
         <v>870830201</v>
       </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" s="1">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1">
         <v>7.6563323091249899E-5</v>
       </c>
-      <c r="Q66">
+      <c r="T66">
         <v>0.99992346763610795</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="U66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>870830301</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+      <c r="B67" s="2">
+        <v>7.0501610000000006E-2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
       </c>
       <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>4.3968865647911999E-3</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.99560308456420898</v>
       </c>
       <c r="G67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>870830301</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
         <v>1.15528714377433E-3</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>0.99884474277496305</v>
       </c>
-      <c r="M67">
+      <c r="N67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P67">
         <v>870830301</v>
       </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
         <v>1.18715724966023E-4</v>
       </c>
-      <c r="Q67">
+      <c r="T67">
         <v>0.99988126754760698</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="U67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>870830401</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68" s="2">
+        <v>8.2660010000000006E-2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
       </c>
       <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>8.0005796626210195E-3</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.99199944734573298</v>
       </c>
       <c r="G68">
+        <f t="shared" ref="G68:G71" si="3">IF(F68&gt;0.999965,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>870830401</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
         <v>4.5873639173805696E-3</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>0.99541264772415095</v>
       </c>
-      <c r="M68">
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
         <v>870830401</v>
       </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68" s="1">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1">
         <v>1.67440478149316E-10</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" ref="U68:U71" si="4">IF(T68=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>872390101</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="2">
+        <v>7.0251233999999996E-2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
         <v>1.2058811762472001E-6</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.99999880790710405</v>
       </c>
       <c r="G69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>872390101</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
         <v>3.8903610402485302E-5</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>0.999961137771606</v>
       </c>
-      <c r="M69">
+      <c r="N69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P69">
         <v>872390101</v>
       </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69" s="1">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69" s="1">
         <v>9.6335782098011299E-23</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>891800601</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="2">
+        <v>1.9351441E-2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
         <v>2.67322411673376E-5</v>
       </c>
-      <c r="E70">
+      <c r="F70" s="4">
         <v>0.99997329711913996</v>
       </c>
       <c r="G70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>891800601</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>6.1286105774342996E-3</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>0.99387133121490401</v>
       </c>
-      <c r="M70">
+      <c r="N70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
         <v>891800601</v>
       </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70" s="1">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1">
         <v>5.3483724393732501E-11</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>893810501</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" s="2">
+        <v>7.9570550000000004E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
         <v>8.2325304902042194E-6</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.999991774559021</v>
       </c>
       <c r="G71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>893810501</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>1.06155697721987E-4</v>
       </c>
-      <c r="K71">
+      <c r="M71" s="4">
         <v>0.99989378452301003</v>
       </c>
-      <c r="M71">
+      <c r="N71">
+        <f t="shared" ref="N71" si="5">IF(M71&gt;0.9999,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P71">
         <v>893810501</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71" s="1">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71" s="1">
         <v>9.3090358129561899E-19</v>
       </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2">
+        <f>AVERAGE(B12:B13,B17,B33,B40,B70)</f>
+        <v>5.0952950083333337E-2</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75">
+        <f>AVERAGE(B17)</f>
+        <v>4.6547335E-3</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q75">
+        <f>AVERAGE(B7,B10:B12,B14:B17,B22:B24,B26:B27,B29:B36,B40:B42,B45:B48,B51,B54,B59,B68,B70)</f>
+        <v>0.10343534683333333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="2">
+        <f>AVERAGE(B3:B8,B10:B11,B14:B16,B18:B24,B26:B27,B29:B32,B34:B39,B41:B51,B54,B59,B61:B63,B65:B68)</f>
+        <v>0.47245561522000001</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <f>AVERAGE(B6:B8,B10:B16,B18:B24,B26:B51,B54,B59,B61:B63,B65:B68,B70)</f>
+        <v>0.44749333486792464</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q76">
+        <f>AVERAGE(B6,B8,B18:B21,B37:B39,B43:B44,B49:B50,B61:B63,B65:B67)</f>
+        <v>1.044733524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="2">
+        <f>AVERAGE(B3:B71)</f>
+        <v>0.40241697109420294</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77">
+        <f>AVERAGE(B6:B8,B10:B24,B26:B51,B54,B59,B61:B63,B65:B68,B70)</f>
+        <v>0.43929262002777786</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77">
+        <f>AVERAGE(B6:B8,B10:B12,B14:B24,B26:B27,B29:B51,B54,B59,B61:B63,B65:B68,B70)</f>
+        <v>0.44737121925961543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M6:Q69">
-    <sortCondition ref="M6:M69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P6:T69">
+    <sortCondition ref="P6:P69"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
